--- a/results/I3_N5_M2_T15_C150_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T15_C150_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1835.909519245784</v>
+        <v>167.3630522705333</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.002000093460083008</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.82147747210148</v>
+        <v>19.36305227053332</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.46290845299062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.420950226667207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1464.020000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>357.11</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -711,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -813,7 +758,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -824,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -923,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.159698016270317</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5.537091547009391</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.18449368032031</v>
+        <v>12.7338617375427</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +892,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14.02175110787769</v>
+        <v>13.57111916510008</v>
       </c>
     </row>
     <row r="9">
@@ -969,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -997,146 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>7</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>7</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1238,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>244.445</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>244.98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>259.21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1076,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>250.185</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1087,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>248.11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>106.2600000000008</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1109,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>109.8650000000008</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>107.7250000000008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1131,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>111.9600000000008</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1142,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>110.95</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1153,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>72.47999999999934</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1164,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>77.40999999999934</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>81.15000000000001</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1186,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>74.90999999999934</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>75.71999999999935</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1208,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>176.2699999999993</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1219,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>168.85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1230,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>183.3699999999994</v>
+        <v>93</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>173.2749999999994</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1252,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>172.2599999999993</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>183.4800000000006</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1274,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>197.2100000000006</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>199.2050000000006</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1296,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>203.8200000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>201.3650000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>183.4800000000006</v>
+        <v>139</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1329,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>197.2100000000006</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1340,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>199.2050000000006</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1351,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>203.8200000000006</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1362,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>201.3650000000006</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1373,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>244.445</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1384,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>244.98</v>
+        <v>132</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>259.21</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1406,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>250.185</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1417,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>248.11</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>33.48000000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1475,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>47.2100000000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1486,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>49.20500000000061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1497,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>53.82000000000056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1508,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>51.36500000000061</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1519,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>94.44499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1530,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>94.97999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>109.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1552,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>100.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>98.10999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1676,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>12.2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.99</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1698,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1709,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1915,7 +1720,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1926,7 +1731,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1937,7 +1742,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1948,7 +1753,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -1959,7 +1764,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1970,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>4.725</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1786,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1797,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>4.425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +1819,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>3.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2083,7 +1888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2108,171 +1913,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>5</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>5</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>5</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>5</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
